--- a/inst/extdata/population_finland_b2020.xlsx
+++ b/inst/extdata/population_finland_b2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riwh\OneDrive - Folkehelseinstituttet\packages\fhidata\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="13_ncr:1_{E0AA4139-EC72-7240-B4DA-8072FE8D2BA7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{9A48425D-8E94-4555-A014-088A75C6BF31}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="13_ncr:1_{E0AA4139-EC72-7240-B4DA-8072FE8D2BA7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{7207BA5B-4D23-46F4-BB91-CCA5E8587C16}"/>
   <bookViews>
-    <workbookView xWindow="15600" yWindow="1245" windowWidth="12555" windowHeight="13185" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6150" yWindow="2385" windowWidth="20550" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="norwayLocations" sheetId="1" r:id="rId1"/>
@@ -39,69 +39,6 @@
     <t>hospitaldistrict</t>
   </si>
   <si>
-    <t>hospitaldistrict09</t>
-  </si>
-  <si>
-    <t>hospitaldistrict15</t>
-  </si>
-  <si>
-    <t>hospitaldistrict10</t>
-  </si>
-  <si>
-    <t>hospitaldistrict25</t>
-  </si>
-  <si>
-    <t>hospitaldistrict11</t>
-  </si>
-  <si>
-    <t>hospitaldistrict19</t>
-  </si>
-  <si>
-    <t>hospitaldistrict05</t>
-  </si>
-  <si>
-    <t>hospitaldistrict17</t>
-  </si>
-  <si>
-    <t>hospitaldistrict14</t>
-  </si>
-  <si>
-    <t>hospitaldistrict08</t>
-  </si>
-  <si>
-    <t>hospitaldistrict21</t>
-  </si>
-  <si>
-    <t>hospitaldistrict20</t>
-  </si>
-  <si>
-    <t>hospitaldistrict06</t>
-  </si>
-  <si>
-    <t>hospitaldistrict12</t>
-  </si>
-  <si>
-    <t>hospitaldistrict18</t>
-  </si>
-  <si>
-    <t>hospitaldistrict13</t>
-  </si>
-  <si>
-    <t>hospitaldistrict07</t>
-  </si>
-  <si>
-    <t>hospitaldistrict04</t>
-  </si>
-  <si>
-    <t>hospitaldistrict16</t>
-  </si>
-  <si>
-    <t>hospitaldistrict03</t>
-  </si>
-  <si>
-    <t>hospitaldistrict00</t>
-  </si>
-  <si>
     <t>FI</t>
   </si>
   <si>
@@ -115,6 +52,69 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>fi_hospitaldistrict09</t>
+  </si>
+  <si>
+    <t>fi_hospitaldistrict15</t>
+  </si>
+  <si>
+    <t>fi_hospitaldistrict10</t>
+  </si>
+  <si>
+    <t>fi_hospitaldistrict25</t>
+  </si>
+  <si>
+    <t>fi_hospitaldistrict11</t>
+  </si>
+  <si>
+    <t>fi_hospitaldistrict19</t>
+  </si>
+  <si>
+    <t>fi_hospitaldistrict05</t>
+  </si>
+  <si>
+    <t>fi_hospitaldistrict17</t>
+  </si>
+  <si>
+    <t>fi_hospitaldistrict14</t>
+  </si>
+  <si>
+    <t>fi_hospitaldistrict08</t>
+  </si>
+  <si>
+    <t>fi_hospitaldistrict21</t>
+  </si>
+  <si>
+    <t>fi_hospitaldistrict20</t>
+  </si>
+  <si>
+    <t>fi_hospitaldistrict06</t>
+  </si>
+  <si>
+    <t>fi_hospitaldistrict12</t>
+  </si>
+  <si>
+    <t>fi_hospitaldistrict18</t>
+  </si>
+  <si>
+    <t>fi_hospitaldistrict13</t>
+  </si>
+  <si>
+    <t>fi_hospitaldistrict07</t>
+  </si>
+  <si>
+    <t>fi_hospitaldistrict04</t>
+  </si>
+  <si>
+    <t>fi_hospitaldistrict16</t>
+  </si>
+  <si>
+    <t>fi_hospitaldistrict03</t>
+  </si>
+  <si>
+    <t>fi_hospitaldistrict00</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D23"/>
+      <selection activeCell="C3" sqref="C3:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +508,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -517,10 +517,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -531,10 +531,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2">
         <v>5535975</v>
@@ -548,10 +548,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2">
         <v>127233</v>
@@ -565,10 +565,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2">
         <v>193105</v>
@@ -582,10 +582,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2">
         <v>98587</v>
@@ -599,10 +599,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2">
         <v>1696454</v>
@@ -616,10 +616,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2">
         <v>40234</v>
@@ -633,10 +633,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2">
         <v>72107</v>
@@ -650,10 +650,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2">
         <v>171213</v>
@@ -667,10 +667,10 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E10" s="2">
         <v>77445</v>
@@ -684,10 +684,10 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E11" s="2">
         <v>252435</v>
@@ -701,10 +701,10 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E12" s="2">
         <v>164414</v>
@@ -718,10 +718,10 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E13" s="2">
         <v>116919</v>
@@ -735,10 +735,10 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E14" s="2">
         <v>60193</v>
@@ -752,10 +752,10 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E15" s="2">
         <v>538790</v>
@@ -769,10 +769,10 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E16" s="2">
         <v>163944</v>
@@ -786,10 +786,10 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E17" s="2">
         <v>410594</v>
@@ -803,10 +803,10 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E18" s="2">
         <v>243699</v>
@@ -820,10 +820,10 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E19" s="2">
         <v>209993</v>
@@ -837,10 +837,10 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E20" s="2">
         <v>216367</v>
@@ -854,10 +854,10 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E21" s="2">
         <v>169190</v>
@@ -871,10 +871,10 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E22" s="2">
         <v>483013</v>
@@ -888,10 +888,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E23" s="3">
         <v>30046</v>
